--- a/DB/relatorio.xlsx
+++ b/DB/relatorio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B639"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,144 +436,7668 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>category_id</t>
+          <t>video_id</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>category_name</t>
+          <t>title</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18122</t>
+          <t>1977541630</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>World of Warcraft</t>
+          <t>BEAT THE BEAST | Monster Energy MW3 Charity Tournament | Atlanta FaZe vs. YOU !signup !redeem !mw3faq !mw3help</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1337444628</t>
+          <t>1975049089</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Call of Duty: Modern Warfare III</t>
+          <t>BEAT THE BEAST $25k MW3 Charity Tournament</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>21779</t>
+          <t>1963351402</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>League of Legends</t>
+          <t>Monster Mornings with Cap &amp; Hot_Bid | #TI12 Preshow | LIVE from Seattle!</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>490377</t>
+          <t>1962493147</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sea of Thieves</t>
+          <t>Monster Mornings with Cap &amp; Hot_Bid | #TI12 Preshow | LIVE from Seattle!</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>12839</t>
+          <t>1961614373</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Heroes of Might and Magic III: The Restoration of Erathia</t>
+          <t>Monster Mornings with Cap &amp; Hot_Bid | #TI12 Preshow | LIVE from Seattle!</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>512710</t>
+          <t>1957552616</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Call of Duty: Warzone</t>
+          <t>Team Liquid Monster Mornings with Cap &amp; Hot_Bid | #TI12 Preshow | LIVE from Seattle!</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1358159040</t>
+          <t>1956644256</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>UFO Robot Grendizer: The Feast of the Wolves</t>
+          <t>Team Liquid Monster Mornings with Cap &amp; Hot_Bid | #TI12 Preshow | LIVE from Seattle!</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>489170</t>
+          <t>1955721619</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DARK SOULS II: Scholar of the First Sin</t>
+          <t>Team Liquid Monster Mornings with Cap &amp; Ken | #TI12 Preshow | LIVE from Seattle!</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>498482</t>
+          <t>1933142063</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Age of Empires IV</t>
+          <t>Unleashed Podcast with the Dingo, Danny &amp; Brittney Palmer | LIVE from LA Memorial Coliseum</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1023625360</t>
+          <t>1531825678</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Risk of Rain Returns</t>
+          <t>Monster Energy's Channel Trailer</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>514858</t>
+          <t>1527102692</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>League of Legends: Wild Rift</t>
+          <t>LIVE &amp; Unleashed is BACK 7-12 | X Games BMX Backyard Hangout</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>1235448223</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MonsterEnergy's Channel Trailer</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>1137892691</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>#RallyYourSquad: Monster Energy x Apex Legends</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>1134350339</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Monster Energy x Apex Legends</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>1116171807</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>LIVE &amp; Unleashed: Hungrybox Bets DC $10k in Smash!</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>1116149890</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>LIVE &amp; Unleashed: DC Talks Olympic Wrestling</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>1112204413</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>MonsterEnergy's Channel Trailer</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>1110061213</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>LIVE &amp; Unleashed with The Dingo returns 8-11-21!</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>1053331349</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>LIVE &amp; Unleashed with the Dingo: June 14 at 7pm PST!</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>1977116910</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>STREAM SIN LIMITES DÍA 12 - ¿CUANDO ACABAREMOS?</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>1976117179</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>STREAM SIN LIMITES DÍA 10 - DUO RANKEDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>1974232144</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>STREAM SIN LIMITES DÍA 8 - Estoy durmiendo me levanto a las 11 a.m (rebroadcast)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>1972620710</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>STREAM SIN LIMITES DÍA 7 || LA NUEVA SEASON 6 DE FORTNITE</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>1972605169</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Destacado: PARTIDAS CON LLOBE ETC</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>1972603942</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Destacado: TORNEO OG con zeta</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>1970939787</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>STREAM SIN LIMITES DÍA 5 | Estoy durmiendo Rebroadcast (vuelvo a las 12)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>1970316791</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Destacado: STREAM SIN LIMITES DÍA 3: TORNEOS DE FORTNITE y FUT CHAMPS</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>1969267986</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>STREAM SIN LIMITES DÍA 3: TORNEOS DE FORTNITE y FUT CHAMPS</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>1969261193</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>STREAM SIN LIMITES DÍA 2 I !video</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>1967498407</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Destacado: STREAN SIN LIMITES DIA 1: EL INICIO DEL FORTNITE</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>1967473479</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Destacado: STREAN SIN LIMITES DIA 1: EL INICIO DEL FORTNITE</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>1967354604</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>STREAN SIN LIMITES DIA 1: EL INICIO DEL FORTNITE</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>1965705197</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>NO CIERRO STREAM HASTA SUBIR A 1a DIVISION</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>1964940841</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>HEROE ASEGURADO, 80 SOBRES y EQUIPO FUT CHAMPS SEMANA 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>1964164338</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>MUNDIAL DE STREAMERS DE F1, BALÓN de ORO y EQUIPO SEMANA 5 FUT CHAMPS</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>1963266592</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>FUT CHAMPS #3: La Conquista de Asia</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>1961043572</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>NO PUEDO CERRAR STREAM HASTA GANAR UN FUT DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>1960733704</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>CLASIFICATORIO de FUT CHAMPS y ¿STREAM con MI FAMILIA?</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>1959113160</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>NO PUEDO CERRAR STREAM HASTA SUBIR A 2a DIVISION</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>1977548921</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Zack - C'est la NUIT les amis</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>1977097316</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Temps fort : Zack - Un Nouvel Homme</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>1977097318</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Temps fort : Zack - Un Nouvel Homme</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>1976652548</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Zack - Un Nouvel Homme</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>1973477930</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Temps fort : Zack - C'est la Nuit ça me fait kiffer</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>1973472008</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Temps fort : Zack - FM</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>1973102620</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Zack - C'est la Nuit ça me fait kiffer</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>1972675026</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Temps fort : Zack - La Nocturne de Zinzin (Pack Opening &amp; Suite FM24)</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>1972674176</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Temps fort : Zack - La Nocturne de Zinzin (Pack Opening &amp; Suite FM24)</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>1972673616</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Temps fort : Zack - La Nocturne de Zinzin (Pack Opening &amp; Suite FM24)</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>1972238782</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Zack - La Nocturne de Zinzin (Pack Opening &amp; Suite FM24)</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>1971998627</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Zack en Roue Libre avec Tom Lecomte &amp; Théo Curin (S07E07)</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>1971789774</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Clip: Zack - Debrief Ligue des Champions (Puis FM OL)</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>1971378286</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Zack - Debrief Ligue des Champions (Puis FM OL)</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>1970570923</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Zack - On va le faire les mecs</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>1970226408</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Temps fort : Zack - La Matinale qui réchauffe le coeur</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>1970122266</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Temps fort : Zack - On va en Ligue 2 (Puis FUT Champs, j'aime souffrir)</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>1969774545</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Zack - De la bonne Nocturne (+ On fini FUT Champ)</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>1969448554</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Zack - On va en Ligue 2 (Puis FUT Champs, j'aime souffrir)</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>1967922323</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Zack - Nocturne avec mes amis (vous)</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>1977552615</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>GELLI E GÊMEOS INVESTEM - NOSTALGIA E EDUCAÇÃO FINANCEIRA - UNLK #009 -&gt; !setup !canal</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>1973097006</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>A FOFOCA DE QUINTA... -&gt; !setup !canal</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>1971374431</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>QCK E SAADHAK - A NOVA CONTRATAÇÃO DA LOUD - UNLK #008 -&gt; !canal</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>1966959339</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>FERIADOU... -&gt; !stumble !setup</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>1965281182</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>KONDZILLA - PRODUTOR, EMPRESÁRIO E APRESENTADOR - UNLK #007 -&gt; !canal !setup</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>1958005192</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>LIVE PRÉ VIAGEM!! -&gt; !setup !CLICK</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>1957026381</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>LIVE PRÉ VIAGEM!! -&gt; !setup !CLICK</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>1955278255</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>AO VIVO FAMÍLIA!! MOMENTO AGON -&gt; !AGON !CLICK</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>1953610354</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>NYVI ESTEPHAN - 10 ANOS DE CARREIRA EM GAMES - UNLK #006 -&gt; !canal</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>1947774610</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>BAK - MINDSET CAMPEÃO E PROPÓSITO - UNLK #005 -&gt; !canal</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>1943590809</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>MANDE UM ASSUNTO QUE VOU COMENTAR SOBRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>1941922303</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>GAULES - STREAMER E FUNDADOR DA TRIBO - UNLK #004 -&gt; !canal !bgs</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>1935956994</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>EL GATO - EMPRESÁRIO E FUNDADOR DA LOS GRANDES - UNLK #003 -&gt; !canal !bgs</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>1976974916</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>PIXATHON DO DODO 👿 25R$ = 30 MIN | 50R$ = 1 HORA</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>1976821379</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>FUTVOLEI COM OS PITBULLS | PIXATHON DO DODO 👿 25R$ = 30 MIN | 50R$ = 1 HORA</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>1976801082</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>CAMP DUO ft. LORAX | PIXATHON DO DODO 👿 25R$ = 30 MIN | 50R$ = 1 HORA</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>1975621272</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>HOJE TERA A VOLTA DO PIXATHON 25$ = 30 MINUTOS I 50$ = 1 HORA</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>1972444029</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>PIXATHON👺25$=30MINUTOS|50$=1HORA</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>1971746882</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>NOITE GAMER COM O LORAX 🔞🔞🔞🤭 |PIXATHON👺15$=30MINUTOS|30$=1HORA</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>1970095234</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>PROCURANDO CONTEUDO | PIXATHON DO DODO 👺 15$ = 30 MINUTOS | 30$ = 1 HORA</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>1970074229</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>JOGANDO TORNEIO NO CLASH ROYALE COM O CHAT ✌️ | PIXATHON DO DODO 👺 15$ = 30 MINUTOS | 30$ = 1 HORA</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>1969894646</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>PROCURANDO CONTEUDO | PIXATHON DO DODO 👺 15$ = 30 MINUTOS | 30$ = 1 HORA</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>1969098319</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>EBA TA QUASE ACABANDO GG | PIXATHON DO DODO 😈 -&gt; 15 R$ = 30 MINUTOS e 30 R$ = 1 HORA</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>1968926597</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>IRL  amorrr</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>1968316928</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>FALTA 1 HORA SO PIXATHON -&gt; 15R$ = 30MIN / 30 R$ = 1HORA</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>1968129868</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>FALTA 1 HORA SO PIXATHON -&gt; 15R$ = 30MIN / 30 R$ = 1HORA</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>1967208112</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>ZONE WARS COM CHAT, VALENDO 13K DE VBUCKS OMG😱😱 | PIXATHON --&gt; 15R$ = 30MIN / 30R$ = 1 HR | CODE: DONATELLO 🚨🚨</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>1966675061</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>MANDEI MAL PIXATHON -&gt; 15R$ = 30MIN / 30 R$ = 1HORA</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>1966221443</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>IRL  amorrr</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>1965010696</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>PENSANDO EM FAZER UM PIXATHON OQUE ACHAM?</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>1964190269</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>MEIKOD PFFF FECHA A LIVE</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>1961642435</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>IRL  NO SHOOPING COM O CAUA</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>1960840241</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>HOJE ACABAMOS A SAGA</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>1977352462</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>dat boy cold</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>1976495445</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>all roads lead to valorant</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>1975656937</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>all roads lead to valorant</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>1974905605</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>yoOOOOOOOOOOOOOOOOO</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>1973700373</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>yup uhhh yeah hes insane</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>1972885144</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>bouncing back from yesterday like gum gum</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>1972085957</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>today i destruction !</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>1971220543</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>yo he nice</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>1970405907</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>YOU CANT SPELL RADIANT WITHOUT MOST OF MY NAME</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>1969598478</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>when all hope is lost grab onto my pants</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>1968663464</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>RADIANT JOURNEY: IMMORTAL 2 90 LP START</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>1967623347</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>I WILL GET RADIANT</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>1966742038</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>ABSOLUTE MONSTER GAMEPLAY</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>1965059035</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>NEW ACT. RADIANT RUN?</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>1964273378</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>might just do the thang today</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>1962685772</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>shorto</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>1962226539</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>yuh</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>1961731780</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>uhhhhhhhhhh yo</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>1960893181</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>starting lies of p today?????</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>1959256408</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>back with the milk</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>1977378739</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>✅24/7|!DROPS| World of Warcraft Dragonflight Guardians of the Dream Twitch LOOT Drop |!WATCHTIME| = 4 Hours to Get White Riding Camel Mount!</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>1975745840</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>✅24/7|!DROPS|  Call of Duty: Modern Warfare III !WATCHTIME= 4 Hrs Claims Launch Weapon Blueprint, Loading Screen, Charm &amp; Vinyl |NOSPOILERS|</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>1973779427</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>✅24/7|!DROPS| Diablo IV Season of Blood Twitch LOOT Drops Week 4, Oricalchum Quarterstaff (Druid) !WATCHTIME = 4 Hours |NOSPOILERS|</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>1972502580</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>✅24/7|!DROPS| World of Warcraft Dragonflight Guardians of the Dream Twitch LOOT Drop !WATCHTIME = 4 Hours to Get the Dottie Pet |NOSPOILERS|</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>1971732921</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>✅24/7|!DROPS| World of Warcraft Dragonflight Patch 10.2 Guardians of the Dream Twitch LOOT Drop: Get the Dottie Pet |!WATCHTIME| = 4 Hours!</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>1970083041</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>✅24/7|!DROPS| Diablo IV Season of Blood Twitch Drops Week 3, Oricalchum Greatsword (Barbarian &amp; Necromancer) !WATCHTIME 4 Hours NO SPOILERS</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>1968293534</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>✅24/7|!DROPS|Overwatch 2 World Cup Bracket Stage Celebration LOOT !WATCHTIME 13+ Hours rewards World Cup Doomfist, Bastion, Ana Skins &amp; Mor</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>1966458320</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>✅24/7|!DROPS| Diablo IV Season of Blood Twitch Drops Week 3, Oricalchum Greatsword (Barbarian &amp; Necromancer) !WATCHTIME 4 Hours NO SPOILERS</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>1966457979</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>✅24/7|!DROPS| Diablo IV Season of Blood Twitch Drops Week 3, Oricalchum Greatsword (Barbarian &amp; Necromancer) !WATCHTIME 4 Hours NO SPOILERS</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>1964794609</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>✅24/7|!DROPS| Overwatch 2 World Cup Group Stage Celebration LOOT !WATCHTIME 14 hours Rewards World Cup Echo &amp; Zarya Skins, Group C&amp;D Sprays!</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>1963153398</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>✅24/7|!DROPS| Overwatch 2 World Cup Group Stage Celebration LOOT !WATCHTIME 14+ claim the rewards World Cup Pharah, Orisa, Group A&amp;B Sprays</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>1962897390</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>✅24/7|!DROPS|Le Sserafim x Overwatch 2 Halloween Drops! 2 Hours = Wrecking Ball Trick Treat! 6 Hours = Wrecking Ball MayHAM Skin NO SPOILERS</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>1962405773</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>✅24/7|!DROPS|Le Sserafim x Overwatch 2 Halloween Drops! 2 Hours = Wrecking Ball Trick Treat! 6 Hours = Wrecking Ball MayHAM Skin NO SPOILERS</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>1960716721</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>✅24/7|!DROPS| Diablo IV Season of Blood Twitch Drops: Week 2, !WATCHTIME 4 Hours = Oricalchum Mallet (Barbarian &amp; Druid) |SPOILER FREE|</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>1959001601</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>✅24/7|!DROPS| Diablo IV Season of Blood Twitch Drops: Week 2, !WATCHTIME Oricalchum Mallet (Barbarian &amp; Druid) |SPOILER FREE|</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>1958974658</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>✅24/7|!DROPS| Diablo IV Season of Blood Twitch Drops: Week 1 !WATCHTIME 4Hrs Oricalchum Blade (Rogue, Sorcerer &amp; Necromancer) |SPOILER FREE|</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>1958892140</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>✅24/7|!DROPS| Diablo IV Season of Blood Twitch Drops: Week 1 !WATCHTIME 4Hrs Oricalchum Blade (Rogue, Sorcerer &amp; Necromancer) |SPOILER FREE|</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>1957711313</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>✅24/7|!DROPS| Diablo IV Season of Blood Twitch Drops: Week 1 !WATCHTIME 4Hrs Oricalchum Blade (Rogue, Sorcerer &amp; Necromancer) |SPOILER FREE|</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>1955871099</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>✅24/7|!DROPS| Overwatch 2 Season 7 Rise of Darkness Loot !WATCHTIME 4+ hours to claim a Epic Skin, Voice Lines, Charm, &amp; Icon |SPOILER FREE|</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>1954239012</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>✅24/7|!DROPS| Overwatch 2 Season 7 Rise of Darkness Loot !WATCHTIME 4+ hours to claim a Epic Skin, Voice Lines, Charm, &amp; Icon |SPOILER FREE|</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>1977353708</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>garf to world first, rogue/dh guy</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>1975915301</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>test wow stream b4 race!poecoaching</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>1958057501</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>5man w/ wow gang + poe later FOR SURE !VPN !poecoaching</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>1954691949</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>1:12:39 pts + lab</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>1954559384</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>a5 asplab D4 BAD !VPN !poecoaching</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>1954555542</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>a5 asplab D4 BAD !VPN !poecoaching</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>1953763178</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>cs2 with liquid wow guys, poe a5 asplab later | D4 BAD !VPN !poecoaching</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>1950403392</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>!VPN jk no time for 100 run | a5 kitava tho baseg !poecoaching</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>1948615720</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>fresh hcssf to lvl 100 randomly(dd ele) !VPN !poecoaching</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>1948613363</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>fresh hcssf to lvl 100 randomly !VPN !poecoaching</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>1947235282</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>cs2 5man with the squad !VPN !poecoaching</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>1945586444</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>cs2 enjoyer(i bought the knife) !poecoaching</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>1943810416</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>liquid wow team 5mans ok !poecoaching</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>1943788762</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>liquid wow team 5mans ok !poecoaching</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>1942905945</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>10k soon COPIUM d4 good !poecoaching</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>1942102843</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>(ranked system makes 0 sense)  !poecoaching</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>1942102248</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>(ranked system makes 0 sense)  !poecoaching</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>1940840432</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>day 4? xdd  !poecoaching</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>1939042494</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>day 3 of getting better at fps ok !poecoaching</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>1938028446</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>day 2 of getting better at fps ok !poecoaching</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>1977462420</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Key -&gt; Hole | !tip for tip of the day</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>1976344760</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Routes and Stuff -&gt; 10.2 Gaming</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>1975567514</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Routes and Stuff -&gt; 10.2 Gaming</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>1974612622</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>M+ DPS Tier List -&gt; 10.2 Gaming</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>1973732206</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>10.2 Gaming &amp; Guide Updating</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>1973149398</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Titanforge Podcast - Dungeon Quick Guides</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>1972789777</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>[✅DROPS] 10.2 Gaming</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>1971808836</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>New Patch woo</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>1971325180</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Tier List for M+ DPS</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>1970426815</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Tier List for M+ DPS</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>1964823889</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>M+ Guide Creation</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>1963853101</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>PTR Keys</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>1963552178</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>PTR Keys</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>1962398977</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>PTR Keys</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>1961830851</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>PTR Keys</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>1961145001</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>What to expect with 10.2 - Titanforge Podcast</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>1960646998</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>10.2 Guide Stuff</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>1959054979</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>10.2 Guide Stuff</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>1956888280</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>PTR Keys</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>1956357622</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Rise and Grind</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>1977507432</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>ASSISTINDO STAR VS AS FORÇAS DO MAL - HORA DE AVENTURTA - BEN 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>1976664582</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>ASSISTINDO RICK AND MORTY - BEN 10 - HORA DE AVENTURA - STAR VS AS FORÇAS DO MAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>1975850249</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>ASSISTINDO VINGANÇA E CASTIGO - PROJETO ALMANAQUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>1974901669</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>ASSISTINDO Homem-Aranha Através do Aranhaverso</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>1973919734</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>ASSISTINDO JUJUTSU KAISEN - ONE PIECE - SPY X FAMILY - NORAGAMI</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>1971443028</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>ASSISTINDO RICK AND MORTY - BEN 10 - HORA DE AVENTURA - STAR VS AS FORÇAS DO MAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>1971330067</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>ASSISTINDO RICK AND MORTY - BEN 10 - HORA DE AVENTURA - STAR VS AS FORÇAS DO MAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>1970656721</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>ASSISTINDO ONE PIECE - SPY X FAMILY - NORAGAMI</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>1970510757</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>ASSISTINDO ONE PIECE - SPY X FAMILY - NORAGAMI</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>1968807979</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>ASSISTINDO TRANSFORMERS 3 - BUMBLEBEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>1967872710</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>ASSISTINDO JUJUTSU KAISEN - KAGUYA SAMA</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>1967836834</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>ASSISTINDO JUJUTSU KAISEN - KAGUYA SAMA</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>1966075474</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>ASSISTINDO RICK AND MORTY - BEN 10 - HORA DE AVENTURA - STAR VS AS FORÇAS DO MAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>1976719384</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>LIVE 360 NO SCOPE❤️!donate❤️</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>1975873679</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>LIVE 360 NO SCOPE❤️!donate❤️</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>1971334518</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>LIVE WAIFU❤️!donate❤️</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>1966925254</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>❤️LIVE SLEEPY ASMR❤️!donate❤️</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>1964448745</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>LIVE Dark ASMR to fall asleep too❤️</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>1962779457</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>❤️LIVE ASMR❤️SWE/ENG</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>1962660859</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>BIG UNBOXIN and chit chat❤️SWE/ENG</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>1961768762</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>BIG UNBOXING then Dark Souls?❤️</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>1961032229</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>❤️LIVE ASMR 360 NO SCOPE❤️</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>1960230306</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>❤️LIVE ASMR 360 NO SCOPE❤️</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>1958621696</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>LIVE ASMR !yt (NEW VIDEO)❤️</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>1957817948</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>prep [ENG/SWE] !s !donate❤️</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>1957653278</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>FIRST PLAYTHROUGH❤️ [ENG/SWE] !s !donate❤️</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>1955810397</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>[ENG/SWE] dance? !s !wishlist !donate❤️</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>1954326406</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>come chat❤️</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>1953556072</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>LIVE❤️QUEEN OF UR DREAMS❤️</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>1952790425</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>LIVE ASMR - 360 no scope❤️</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>1951908126</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>cleaning + chatting❤️</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>1951320706</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Höjdpunkt: ❤️LIVE ASMR COZY TIME❤️</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>1950123434</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>❤️NEW GAME❤️</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>1977541465</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>ROAD TO 1 MILLON DIA 2 | Dovux Life +18 | !ds !redes</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>1976491058</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>ROAD TO 1 MILLON DIA 2 | Dovux Life +18 | !ds !redes</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>1975621609</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>ROAD TO 1 M | Dovux Life +18 | !ds !redes</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>1974950985</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>ANTONIO EL MALEDUCADO | Dovux Life +18 | !ds !redes</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>1973974333</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>ANTONIO EL MALEDUCADO | Dovux Life +18 | !ds !redes</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>1973118138</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>DESPUES DE MIL DIAS ME VOLVIO EL INTERNET |  !ds !redes</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>1966202844</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Tony Foster | NMZ | Dovux Life +18 | !ds !redes !banda</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>1965424103</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>ESTAMOS DE VUELTA | El Mudo | ♰LaCruzGang♰ | BaireStreets +18 | !redes !cruz !ds</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>1965362915</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>ESTAMOS DE VUELTA | El Mudo | ♰LaCruzGang♰ | BaireStreets +18 | !redes !cruz !ds</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>1958516060</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>El Mudo en su Prima |♰LaCruzGang♰ || BaireStreets +18 | !redes !cruz !ds</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>1955867760</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Vuelve el Mudo a su Prime | ♰LaCruzGang♰ | BaireStreets +18 | !redes !cruz !ds</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>1954853665</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>EL MUDO | ✝️ La Cruz ✝️ | BairesStreet +18 | !redes !ig !banda</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>1954263891</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Que saleeee, tengo fierro 😎🔫- | ✝️ La Cruz ✝️ | BairesStreet +18 | !redes !ig !banda</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>1954262901</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Que saleeee, tengo fierro 😎🔫- | ✝️ La Cruz ✝️ | BairesStreet +18 | !redes !ig !banda</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>1953505327</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Que saleeee, tengo fierro 😎🔫- | ✝️ La Cruz ✝️ | BairesStreet +18 | !redes !ig !banda</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>1949216054</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Andamos Flamaaa - El Mudo - | ✝️ La Cruz ✝️ | BairesStreet +18 | !redes !ig</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>1948651594</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Andamos Flamaaa - El Mudo - | ✝️ La Cruz ✝️ | BairesStreet +18 | !redes !ig</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>1947539790</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>LA PREVIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>1946943832</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>..... | Baires Streets</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>1943593483</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>CS2 con la ganga</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>1974431965</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>𝙎𝙐𝘽𝘼𝙏𝙃𝙊𝙉 - 𝘿𝙞𝙖 51 🔥 FUT-CHAMPIONS SEM MEDO 🔥!Psn para abrir o teu conteudo ✅ !Linktree 🆗</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>1973045866</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>𝙎𝙐𝘽𝘼𝙏𝙃𝙊𝙉 - 𝘿𝙞𝙖 50 🔥 REWARDS DE RIVALS 🔥!Psn para abrir o teu conteudo ✅ !Linktree 🆗</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>1971357514</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>𝙎𝙐𝘽𝘼𝙏𝙃𝙊𝙉 - 𝘿𝙞𝙖 48 🔥 PARABENS PARA MIM #33  🎉 !Psn para abrir o teu conteudo ✅ !Linktree 🆗</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>1967465296</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>𝙎𝙐𝘽𝘼𝙏𝙃𝙊𝙉 - 𝘿𝙞𝙖 44 🔥 FUT-CHAMPIONS SEM MEDO 🔥 !Psn para abrir o teu conteudo ✅ !Linktree 🆗</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>1967403431</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>𝙎𝙐𝘽𝘼𝙏𝙃𝙊𝙉 - 𝘿𝙞𝙖 44 🔥 FUT-CHAMPIONS SEM MEDO 🔥 !Psn para abrir o teu conteudo ✅ !Linktree 🆗</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>1965708887</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>𝙎𝙐𝘽𝘼𝙏𝙃𝙊𝙉 - 𝘿𝙞𝙖 41 🔥 NOITE DA CONCHA 🔥 !Psn para abrir o teu conteudo ✅ !Linktree 🆗</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>1964059490</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>𝙎𝙐𝘽𝘼𝙏𝙃𝙊𝙉 - 𝘿𝙞𝙖 39 🔥 ACABAR O FUT-CHAMPIONS NA RTG 🔥 !Psn para abrir o teu conteudo ✅ !Linktree 🆗</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>1962303605</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>𝙎𝙐𝘽𝘼𝙏𝙃𝙊𝙉 - 𝘿𝙞𝙖 37 🔥 FUT-CHAMPIONS COM COACHING 🔥 !Psn para abrir o teu conteudo ✅ !Linktree 🆗</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>1960629732</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>𝙎𝙐𝘽𝘼𝙏𝙃𝙊𝙉 - 𝘿𝙞𝙖 36 🔥 REWARDS DE RIVALS 🔥 !Psn para abrir o teu conteudo ✅ !Linktree 🆗</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>1959951372</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>𝙎𝙐𝘽𝘼𝙏𝙃𝙊𝙉 - 𝘿𝙞𝙖 35 🔥 ACABA QUANDO TIVER DE ACABAR 🔥 !Psn para abrir o teu conteudo ✅ !Linktree 🆗</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>1956674925</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>𝙎𝙐𝘽𝘼𝙏𝙃𝙊𝙉 - 𝘿𝙞𝙖 31 🔥FUT-CHAMPIONS SEM GLITCH 🔥 !Psn para abrir o teu conteudo ✅ !Linktree 🆗</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>1954928451</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>𝙎𝙐𝘽𝘼𝙏𝙃𝙊𝙉 - 𝘿𝙞𝙖 29 🔥REWARDS DE RIVALS 🔥  !Psn para abrir o teu conteudo ✅ !Linktree 🆗</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>1954767543</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>𝙎𝙐𝘽𝘼𝙏𝙃𝙊𝙉 - 𝘿𝙞𝙖 29 🔥REWARDS DE RIVALS 🔥  !Psn para abrir o teu conteudo ✅ !Linktree 🆗</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>1953971506</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>𝙎𝙐𝘽𝘼𝙏𝙃𝙊𝙉 - 𝘿𝙞𝙖 28 🔥 VAMOS CHEGAR AO DIA 30??? !Psn para abrir o teu conteudo ✅ !Linktree 🆗</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>1952395696</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>𝙎𝙐𝘽𝘼𝙏𝙃𝙊𝙉 - 𝘿𝙞𝙖 26 🔥 BOA SEMANA PARA TODOS ✅ !Psn para abrir o teu conteudo ✅ !Linktree 🆗</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>1950671271</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>𝙎𝙐𝘽𝘼𝙏𝙃𝙊𝙉 - 𝘿𝙞𝙖 23 🔥 FUT-CHAMPIONS ✅ !Psn para abrir o teu conteudo ✅ !Linktree 🆗</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>1948951887</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>𝙎𝙐𝘽𝘼𝙏𝙃𝙊𝙉 - 𝘿𝙞𝙖 22 🔥 REWARDS DE RIVALS ✅ !Psn para abrir o teu conteudo ✅ !Linktree 🆗</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>1947340663</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>𝙎𝙐𝘽𝘼𝙏𝙃𝙊𝙉 - 𝘿𝙞𝙖 19 🔥 SAQUEI O DEMBELE NO RTG ✅ !Psn para abrir o teu conteudo ✅ !Linktree 🆗</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>1945686109</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>𝙎𝙐𝘽𝘼𝙏𝙃𝙊𝙉 - 𝘿𝙞𝙖 18 🔥 4 FINAIS NA WL ✅ !Psn para abrir o teu conteudo ✅ !Linktree 🆗</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>1943917065</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>𝙎𝙐𝘽𝘼𝙏𝙃𝙊𝙉 - 𝘿𝙞𝙖 15 🔥 EAFC 24 JOGO COMPLETO ✅ !Psn para abrir o teu conteudo ✅ !Linktree 🆗</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>1977594033</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>♡lewdASMR♡mommy phi strim !phi !throne !donate</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>1974998891</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>♡lewdASMR♡very eephi !phi !throne !donate</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>1974057352</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>♡lewdASMR♡WE DODGING THE BAN WITH THIS ONE 🔥🔥🔥!phi !throne !donate</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>1968922410</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>♡lewd♡omg announcement? !announcement !throne !donate</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>1943569962</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Vstarry♡lewd♡bleh  !phi !throne !donate</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>1941055956</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Vstarry♡lewd♡just listen to my voice~ !phi !throne !donate</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>1934355424</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Vstarry♡lewd♡ come pls xd  !phi !throne !donate</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>1929906173</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Vstarry♡lewd♡ur braIn goes brrrrrr~♡  !phi !throne !donate</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>1967759827</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Friday Vibes | !socials !faq !dxracer</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>1976428298</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>💥🟠 DBZ WEEK BEGINS! CAN YOU COLLECT ALL 7 DRAGONBALLS?? 🟠💥| !giveaway !today !playfund !milestones</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>1973661796</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>💥DUDE WE'RE BLOWING UP💥 WITH PIZZA ROLLS 🍕 AND BLOOD 🩸| !today !playfund !milestones</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>1972781388</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>THIS GAME IS SO GOOOOD DUDE | !today !playfund !milestones</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>1972335544</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>DRUNK TAILGAITING: SUPER BOWL EDITION🦶🍹🏈 | !madden !today !playfund !milestones</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>1972235534</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Madden 07 Day 3 </t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>1972233918</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>MADDEN 07 Day 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>1972232852</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Madden 07 Franchise Mode Day 1 </t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>1972230111</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FRIDAY THE 13TH :JASON VS GREYSON PT 6 🩸🪓 </t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>1971945378</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>🏈5 GAMES  FROM THE SUPERBOWL- DRUNK TAILGATE TONIGHT 7pm CT🏈 | !madden !today !playfund !milestones</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>1971443396</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Sonic the Hedgehog day 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>1971441812</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Sonic the Hedgehog First Time Playing</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>1971087689</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>CAN WE GET TO THE PLAYOFFS? - DRUNK TAILGATE WEDNESDAY | !madden !today !playfund !milestones</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>1970284548</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>FOOTBALL BUT OUR CHAT IS THE COACH | !race !playfund !today !milestones</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>1967522134</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>MEGA ANNOUNCEMENT + SHAUN VS. THE IMPOSSIBLE | !race !today !schedule !milestones !playfund</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>1966628962</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>RACING UNTIL I WIN. | !today !october !milestones</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>1965805697</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>MEGA ANNOUNCEMENTS. NOVEMBER STARTS NOW!! | !today !october !milestones</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>1965153226</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 🔪🩸 SURVIVAL HORROR: IRL - A Killer LOOSE in the Studio 💀</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>1965151003</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>THE 4-D SCARE BOX!!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>1965139128</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SONIC HELL DAY 6: OH NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>1964967868</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>🔪🩸 SURVIVAL HORROR: IRL - A Killer LOOSE in the Studio 💀 | !today !october !milestones</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>1977359090</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>❤️[Grounded] - Explorando o quintal da dona Esmênia</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>1976505893</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>❤️[GROUNDED / CPX RP] - Farmando no quintal da dona Zuleica !96</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>1976127589</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>❤️!96 - Jogue com responsabilidade !96</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>1975741236</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>❤️Grounded - Explorando o quintal da dona Juscina❤️ !96</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>1975686182</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>❤️Grounded - Explorando o quintal da dona Juscina❤️ !96</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>1974823521</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>❤️Grounded - Vamos zerar o jogo / GTA RP ❤️</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>1973963795</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>[96 +18] Jogue com responsabilidade! !96</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>1973062402</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>[CPX+18] Tropa da Grega pronto pro KAO!</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>1972184628</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>[CPX+18]  FAC de 🔫 TROPA DA GREGA do CPX!</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>1970533054</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>[CPX+18] FAC DE 🔫 do CPX - Malokas - Tropa da Grega</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>1967771822</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>[CPX+18] FAC DE 🔫 do CPX - Malokas - Tropa da Grega</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>1966941072</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>[CPX+18] HOJE É DIA DE PEGAR ESPERTINHO? FAC DE 🔫 do CPX</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>1966102263</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>[CPX+18] Tropa da Grega vendendo a rodo! FAC DE 🔫</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>1965261157</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>[CPX +18] TROPA DA GREGA TA CRESCENDO! 🔫 FAC DE 4RMAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>1964416964</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>[CPX +18] Tropa da Grega ta na pista, Fac de 4rmas</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>1961010775</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>[CPX +18] Grega vai atrás do Coringa?</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>1960249908</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>[CPX +18] Tropa da Grega vendendo pa rapeize.</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>1959430319</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>[CPX +18] Tropa da Grega com treta na pista!</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>1955161158</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>[CPX +18] Tropa da Grega com treta na pista!</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>1954351926</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>[CPX +18] Tropa da Grega tá pro Kao hoje!</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>1977515437</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>It's Chewsday Innit? | !socials !faq !dxracer</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>1976864643</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Playoff Game w/ MommaSwarm | !socials !faq !dxracer</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>1975751925</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>!newvid or Papercuts Under Your Nails | !socials !faq !dxracer</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>1975564166</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Softballin' w/ MommaSwarm | !socials !faq !dxracer</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>1973036181</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Grindin' | !socials !faq !dxracer</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>1972185838</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>PTB Tings | !socials !faq !dxracer</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>1971243025</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Strange DBD Things -&gt; Stranger Fortnite Things | !socials !faq !dxracer</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>1970848387</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Hear me out | !socials !faq !dxracer</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>1970680480</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Anotha One w/ Momma | !socials !faq !dxracer</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>1969916253</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Eagles Win! Late Stream | !socials !faq !dxracer</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>1969553457</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Softball Stream w/ MommaSwarm | !socials !faq !dxracer</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>1968815378</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>!newvid or I'll Steal Your Halloween Candy | !socials !faq !dxracer</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>1968012004</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Friday Night Softball | !socials !faq !dxracer</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>1967011838</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Softball Championship!!! (Best of 3) | !socials !faq !dxracer</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>1966028042</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Halloween is Over, It's Christmas Time! | !socials !faq !dxracer</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>1965123607</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>🎃 Happy Halloween 🎃 | !socials !faq !dxracer</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>1963670144</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Back to Not Being On Time | !socials !faq !dxracer</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>1962734695</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Actually On Time for Once | !socials !faq !dxracer</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>1961953873</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Softball Stream FOR MommaSwarm | !socials !faq !dxracer</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>1976751285</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>XY SHINY BADGE QUEST HUNTING !notif !schedule !archive</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>1974961537</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Tears of the Kingdom (NO SPOILERS/PUZZLE HINTS PLS) !notif !schedule !archive</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>1974103500</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>fortnite and more with dallas and my friends !notif !schedule !archive</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>1973146942</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>A little fashion for you? Care for some fashion? !notif !schedule !archive</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>1972253546</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>drawing and watching youtube together  !notif !schedule !archive</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>1971380318</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>PAPER MARIO TTYD!! (BLIND/NO SPOILERS) !notif !schedule !archive</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>1970566672</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>WAHOOOOO YIPEEEE (Mario Wonder) !notif !schedule !archive</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>1969810192</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>XY Shiny Badge Quest Hunting! !notif !schedule !archive</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>1969040813</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>cobblemon for a bit !notif !schedule !archive</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>1968884436</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>FORTNITE OG with FRIENDS! !notif !schedule !archive</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>1967958738</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>FASHION DREAMERRRR! !notif !schedule !archive</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>1967044991</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>XY Shiny Badge Quest Hunting! !notif !schedule !archive</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>1966219907</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>WHETZIEEEES, IM HOOOOOOME!!! !notif !schedule !archive</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>1958687880</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Cobblemon and maybe other stuff (last stream for the month? maybe?)  !notif !schedule !archive</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>1957904595</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Pokemon XY Shiny Badge Quest hunting and then Cobblemon probably !notif !schedule !archive</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>1956964657</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Woweee Zoweee Zoowee Mama Mia!!! | Mario Wonder!! !notif !schedule !archive</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>1956171766</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>cobblitis is real (cobblemon stream)  !notif !schedule !archive</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>1956024809</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>calling all robloxarinas to the stage please!!!! !notif !schedule !archive</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>1955317391</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>X&amp;Y Shiny Badge Quest Hunting! !notif !schedule !archive</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>1953569912</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>SONIC SUPERSTARS!! !notif !schedule !archive</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>1977585558</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Nouvelle Map Assetto 🚗🛣 | !volant ! shop !ig</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>1976742399</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>FLASHING LIGHT ⚡</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>1975905730</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>REACT Custom une BMW à 50K€🚗👀  | !volant !shop</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>1974818595</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>ON TRYHARD Habu Dam 🈲🚗 #AD !WRC !volant</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>1973927810</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Découverte du Nouveau Rallye EA SPORT WRC👀🚗 #ad !WRC</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>1973849091</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Découverte du Nouveau Rallye EA SPORT WRC👀🚗 #ad !WRC</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>1973020235</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>🚨MA PLUS GROSSE OP DEMAIN 🚨| !lethal !shop !volant</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>1971407585</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>2eme Jour Chez COMPANY 💀 |  !shop !volant</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>1970565405</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>DÉCOUVERTE DU JEU TERRIFIANT ❓💀 | !lethal !shop !volant</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>1969786084</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>PETIT REACT AVANT TOUT👀 | !jeu !shop !volant</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>1968802500</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>JE VAIS VOUS DIRE COMMENT C'ÉTAIT LA PGW😡</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>1967895069</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>REACT avant LE GRAND COMMENCEMENT👀🗿 | !setup !ig</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>1966989253</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>PGW SAMEDI❓👀</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>1964495707</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>🎃👀</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>1962784981</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>LA BAGARRE💥👀 | !ig !setup !volant</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>1961919863</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>On Découvre Le Nouveau ARK👀 | !ig !setup !volant</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>1961075824</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>EH EH LA EH ❗❗ | !ig !setup</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>1959461513</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>On Agrandit Le Magasin 👀📈 | !ig !setup</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>1958632356</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>ACHETEZ VOTRE MERCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>1957865211</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Nouveau Jeu avec LA TEAM👀🔥</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>1977585669</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>No Hit Any% (PB=21) ~Sub 20 Today~ !newvid !greatbow</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>1975911261</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>No Hit Any% (PB=40) ~Your Weekend Is HERE~ !newvid !greatbow</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>1974982712</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>No Hit Any% (PB=61) ~Your Weekend Is HERE~ !newvid !greatbow</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>1973998440</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>No Hit Any% (PB=61) ~Your Weekend Is HERE~ !newvid !greatbow</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>1973515061</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>missing damage</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>1973077450</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>No Hit Any% (PB=61) ~Cool Kids Only~ !newvid !greatbow</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>1972240782</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>No Hit Any% (PB=92 lol) ~Lets Go~ !newvid !greatbow</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>1971403833</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>No Hit Any% (PB=92 lol) ~Lets Go~ !newvid !greatbow</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>1969795354</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>No Hit Any% (Routing) ~Your Weekend Is HERE~ !newvid !greatbow</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>1967871429</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>First Time DOOM ~Runs Tomorrow?~ !newvid !greatbow</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>1966966347</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>No Hit Any% (Routing) ~Runs Tomorrow?~ !newvid !greatbow</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>1966128938</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>No Hit Run Any% (Routing) ~Big Spooks~ !newvid !greatbow</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>1965270914</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>No Hit Run Any% (Routing) ~Big Spooks~ !newvid !greatbow</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>1963756245</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>No Hit Run Any% (Routing) ~Your Weekend Is HERE~ !newvid !greatbow</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>1962802585</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>No Hit Run Any% (Routing) ~Your Weekend Is HERE~ !newvid !greatbow</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>1962363427</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>Highlight: NO LEVELING, NO WEAPON UPGRADES ~This Happens NOW~ !newvid !greatbow !loprules</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>1961938754</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>No Hit Run Any% (Routing) ~Voice In Shambles~ !newvid !greatbow</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>1960276662</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>NO LEVELING, NO WEAPON UPGRADES ~This Happens NOW~ !newvid !greatbow !loprules</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>1959508298</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>NO LEVELING, NO WEAPON UPGRADES ~Your Weekend Is HERE~ !newvid !greatbow !loprules</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>1958035032</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>NO LEVELING, NO WEAPON UPGRADES ~Your Weekend Is HERE~ !newvid !greatbow !loprules</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>1977584571</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>CS2 W/ @ValeK  @Runah  @zorlakoka !skinclub !csgofast !discord</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>1976740417</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>CS2 W/  @Runah  @zorlakoka !skinclub !csgofast !discord</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>1975948566</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>CS2 W/  @runah  @zorlakoka !skinclub !csgofast !discord</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>1971425205</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>CS2 W/  @runah  @zorlakoka !skinclub !csgofast !discord</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>1971379583</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>CS2 W/  @runah  @zorlakoka !skinclub !csgofast !discord</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>1977376954</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>Alan Wake II | A la decouverte de Alan Wake ii</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>1977347935</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>RETOUR SUR FORTNITE - !discord !résaux</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>1976400480</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>DE RETOUR SUR FORTNITE ! - !discord !réseaux</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>1971970482</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>FLASHBACK WL | EVENT HALLOWEEN 🎃 - !discord !réseaux</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>1964581428</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>FLASHBACK WL | EVENT HALLOWEEN 🎃 - !discord !réseaux</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>1964416644</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>FIN DE LIVE | BISOUS</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>1961669352</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>omg live horreur ???</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>1960829677</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>MARIO KART | ON VA SE PRENDRE DES PEAUX DE BANANES ! - !réseaux !insta !discord</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>1958425354</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>salut la team c le retour sur twitch</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>1958387573</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>salut la team c le retour sur twitch</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>1956592705</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>le retour omg explications leak drama omg</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>1952563081</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>le retour omg explications leak drama omg</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>1934899923</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>LE RETOUR SUR TWITCH OMG ?</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>1715407652</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Valova en concert </t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>1715407651</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>NA NA NI NA NAAAAAAAAA NI</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>1715407649</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>Le mur pas magique</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>1715407650</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>Un Chewing-gum mortel</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>1715375224</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>Les Valova et le poisson</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>1714372392</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>Clip: LE RETOUR DU RP ! - !discord !yt</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>1580787964</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>ICI ON RIGOLE INSTALLE TOI - BA LES TAMS</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>1977598710</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>⭐DROPS⭐FREE WELKINS+ACCOUNT REVIEWS!!! #1 C6R5 FURINA MAIN Every 5 SUBS = 1 WELKIN GA !review !giveaway !review !socials !drops</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>1976775872</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>⭐DROPS⭐FREE WELKINS+ACCOUNT REVIEWS!!! #1 C6R5 FURINA MAIN Every 5 SUBS = 1 WELKIN GA !review !giveaway !review !socials !drops</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>1975929222</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>⭐DROPS⭐FREE WELKINS+ACCOUNT REVIEWS!!! #1 C6R5 FURINA MAIN Every 5 SUBS = 1 WELKIN GA !review !giveaway !review !socials !drops</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>1975768085</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>furina v fatui all natural</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>1975766771</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>furina v liam</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>1975034031</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>⭐DROPS⭐FREE WELKINS+ACCOUNT REVIEWS!!! #1 C6R5 FURINA MAIN Every 5 SUBS = 1 WELKIN GA !review !giveaway !review !socials !drops</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>1974013781</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>⭐DROPS⭐FREE WELKINS+ACCOUNT REVIEWS!!! #1 C6R5 FURINA MAIN Every 5 SUBS = 1 WELKIN GA !review !giveaway !review !socials !drops</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>1973427365</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>Furina v Raiden</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>1973425195</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>furina vs bot</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>1973369036</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>furina story quest cutscene</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>1973093678</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>⭐DROPS⭐FREE WELKINS+ACCOUNT REVIEWS!!! #1 C6R5 FURINA MAIN Every 5 SUBS = 1 WELKIN GA !review !giveaway !review !socials !drops</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>1971864501</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>furina c6r5 wishes</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>1971376196</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>⭐GUARANTEED FURINA GIVEAWAY!⭐ALSO $30 x2 on !twitterga -&gt; #1 C6R5 FURINA MAIN !giveaway !socials !drops</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>1970829898</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>furinademo</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>1970637067</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>⭐#1 C6R5 FURINA MAIN⭐FREE WELKINS+ACCOUNT REVIEWS!!! Every 5 SUBS = 1 WELKIN GA !review !giveaway !review !socials !drops !twitterga</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>1969823317</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>⭐#1 C6R5 FURINA MAIN⭐FREE WELKINS+ACCOUNT REVIEWS!!! Every 5 SUBS = 1 WELKIN GA !review !giveaway !review !socials !drops !twitterga</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>1968879825</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>⭐#1 C6R5 FURINA MAIN⭐FREE WELKINS+ACCOUNT REVIEWS!!! Every 5 SUBS = 1 WELKIN GA !review !giveaway !review !socials !drops !twitterga</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>1967914605</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>⭐#1 C6R5 FURINA MAIN⭐FREE WELKINS+ACCOUNT REVIEWS!!! Every 5 SUBS = 1 WELKIN GA !review !giveaway !review !socials !drops !twitterga</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>1967456660</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>4.2 livestream trailer reaction</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>1967404763</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>FURINA HYPE!!! 4.2 LIVESTREAM WATCH PARTY!!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>1974357647</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>TCG React 229</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>1974278405</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>Chilliman Ifa Katja Dudelsack i will not die Abgeliefert xD</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>1968694452</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>Chaosbay - Ecstasy mit Dudelsack</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>1968277573</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Reaction (uncut) auf Ifa - Burn your Desire </t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>1966693827</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>TCG React 228</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>1965581257</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>Frisch Geschnitten React 39 Happy Halloween</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>1960755034</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>TCG React 227 mit @PsclDpr</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>1960749908</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>Frisch Geschnitten React 38</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>1955172827</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>Reaction Ifa Haunted</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>1955163001</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>TCG React 226</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>1949821343</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>LIVE von der POLARIS! kommt vorbei, sagt Halloohoo  !clips !kofi !wunschliste !Cosmo ¯\\_(ツ)_/¯</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>1948774057</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>React TCG 225</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>1947242380</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>Kanaltrailer von MichaelvonUllrichstein</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>1943310835</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>TCG React 224</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>1938701377</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>React TCG 223yt.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>1937713863</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>React Frisch Geschnitten 037</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>1930946217</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>React Twitch Clips Germany 222</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>1930238291</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>Reaction Frisch Geschnitten 036</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>1924904176</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>TwitchClipsGermany 221 React</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>1924882434</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>Frisch Geschnitten Reaction 035</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>1977528861</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>i return !youtube</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>1970680653</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>i said i would stream again for tns 91 !youtube</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>1970433300</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>discord died so here i am !youtube</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>1970047840</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>I ran into moist hotashi in the tower off-stream He refused to rematch, as expected lmao</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>1967395925</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>this game sucks !youtube</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>1966844486</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>sajam standard time !youtube</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>1966050804</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>how do you play this again !youtube</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>1965624789</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>i have returned !youtube</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>1960588898</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>[Hotashi MTV] off to Seattle for TI until monday !youtube</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>1959484486</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>eden runs then strive or street fighter !metafy</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>1958753576</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>3 hour stream !metafy</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>1958138037</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>what did i miss !metafy</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>1955936439</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>twitch allowing multistream now lets go</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>1955400280</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>roger</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>1955178291</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>look at me. look at me. i am sajam now !youtube</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>1954687085</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>cant restream SFL. games and music !youtube</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>1953636476</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>i got 3rd place at roundhouse !youtube</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>1949584279</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>roundhouse tomorrow !factor !rh2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>1948682446</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>kids went out so time for tns !factor</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>1947810840</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>Match Review Day [GGST][SF6] !factor</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>1976682722</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>VC JÁ AGRADECEU AO MENINO MÔ? | Live Camarada | !pix !discord !apoiase !redes !ads</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>1974695565</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>É Sabadão família!  | Live Camarada | !pix !discord !apoiase !redes !ads</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>1972995011</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>Quintou! Pauta livre | Live Camarada | !pix !discord !apoiase !redes !ads</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>1971314725</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>Felipe Neto,  São Paulo Cidade ixquisita e mais | Live Camarada | !pix !discord !apoiase !redes !ads</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>1970334141</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>Férias! Então hoje a live começa mais cedo | Live Camarada | !pix !discord !apoiase !redes !ads</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>1968589486</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>RINHA DE LIBERAL! | Live Camarada | !pix !discord !apoiase !redes !ads</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>1966793181</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>Não tem feriado no comunismo | Live Camarada | !pix !discord !apoiase !redes !ads</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>1966039728</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>Humor sem política, Reacts e mais| Live Camarada | !pix !discord !apoiase !redes !ads</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>1965227202</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>Dia do Saci | Live Camarada | !pix !discord !apoiase !redes !ads</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>1964423443</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>Cauezão e cultura Woke, Jana e Reacts, Carne  | Live Camarada | !pix !discord !apoiase !redes !ads</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>1963545021</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>Ian Neves e Humberto Matos no Az Ideias pt 2. | Live Camarada | !pix !discord !apoiase !redes !ads</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>1962502222</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>Vamos falar de G@Z@ e depois Ian Neves e Humberto Matos no Az Ideias | Live Camarada | !pix !discord !apoiase !redes !ads</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>1961473260</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>IRL CI no Museu da Lingua Portuguesa</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>1961471027</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>Comulinária - Cozinhando e Conversando #003</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>1977585874</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>MAN TENIMIENTO | SUBGOAL: 350/400</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>1975942064</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>OWO NOCTURNICIONES?  SUBGOAL: 350/400</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>1971376693</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>ASEGURAR SEASON PVP; GOKU vs MOVIES NO ITEM; BREAKERS en PLAY  | SUBGOAL: 400/600</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>1970559640</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>VEGETA &amp; NAPPA y NO ITEM SSJ4 KOKUN TODO  | SUBGOAL: 400/600</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>1969810532</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>SUPER SAIYANO 4 vs TODO  | SUBGOAL: 400/600</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>1967656460</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>SUMMONS SSJ4 ESKELER | SUBGOAL: 400/600</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>1966936103</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>SSJ4 HYPE! ESPERAMOS A LA CELEBRACION (1 AM) y al BANNER? | SUBGOAL: 400/600</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>1965841972</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>NUEVO EVENTO y ANIVERSARIO THE BREAKERS LOL | SUBGOAL: 400/600</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>1965255238</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>3 DIAS para el SSJ4! JOGAMOS con PAKOJUAN; DOKKANEAMOS y TAL | SUBGOAL: 400/600</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>1965203390</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>3 DIAS para el SSJ4! JOGAMOS con PAKOJUAN; DOKKANEAMOS y TAL | SUBGOAL: 400/600</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>1965189683</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>3 DIAS para el SSJ4! JOGAMOS con PAKOJUAN; DOKKANEAMOS y TAL | SUBGOAL: 400/600</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>1964533343</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>GOHAN &amp; PICCOLO SHOWCASE EEHEHEHE  | SUBGOAL: 400/600</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>1964503209</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>GOHAN &amp; PICCOLO SHOWCASE EEHEHEHE  | SUBGOAL: 400/600</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>1963608326</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>PACK OPENING de LOGITECH, DOKKAN y HALLOWEEN 2   | SUBGOAL: 400/600</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>1962718820</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>EL SUPER SAIYANO 4 ESTA EN LA CASA + SPOOKY JARGOLIN NOCHE  | SUBGOAL: 400/600</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>1961887021</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>SUMMONS al BANNER BAIT y ANUNCIO NUEVOS PERSONAJES del DOKKAN  | SUBGOAL: 400/600</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>1960270754</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>🥶MAÑANA BANNER HALLOWEEN🥶  | SUBGOAL: 400/600</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>1959447846</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>ASEGURAMOS SEASON del PVP LOL XD, GRINDEO y PLATINO del SPIDER MAN 2  | SUBGOAL: 400/600</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>1958606063</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>SUMMONS WACHAS y FINAL SPIDER MAN 2(?) | SUBGOAL: 400/600</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>1957768001</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>SE VA A LIAR! SPIDER MAN 2 | SUBGOAL: 400/600</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>1971313024</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>Fortnite Chilling // !redes !pc !memide</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>1969740840</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>Road To Unreal // !redes !pc !memide</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>1977444690</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>!BUILDSFORBITS 500 BITS FOR A BUILD | KILLER STREAKS 🔪 | !socials !youtube</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>1972953472</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>!BUILDSFORBITS 500 BITS FOR A BUILD [LIVE SERVERS] | p100 SPIRIT 👻 p100 HUNTRESS 🪓 | !socials !youtube</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>1972235737</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>Chucky game PTB</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>1972074475</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>PTBBBBBBBBBBB CHUCKYYYYYY | p100 SPIRIT 👻 p100 HUNTRESS 🪓 | !socials !youtube</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>1970421362</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>OH MY GOD I KNOW THE NEW CHAPTER ITS S- | p100 SPIRIT 👻 p100 HUNTRESS 🪓 | !socials !youtube</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>1967707576</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>Huntress cosplay game</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>1967691497</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>Huntress cosplay</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>1966806167</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>SPIRIT WINSTREAKIN 265+ WINS | p100 SPIRIT 👻 p100 HUNTRESS 🪓 | !socials !youtube</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>1965145985</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>HUNTRESS COSPLAY 🪓 HAPPY HALLOWEEN | p100 SPIRIT 👻 p100 HUNTRESS 🪓 | !socials !youtube</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>1964326875</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>GRINDING | 260+ Spirit Winstreak | p100 SPIRIT 👻 p100 HUNTRESS 🪓 | !socials !youtube</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>1960986694</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>HGIHEST MMR EVERYWHERE WOW | 255+ Spirit Winstreak | p100 SPIRIT 👻 p100 HUNTRESS 🪓 | !socials !youtube</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>1960156266</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>BEST SPIRIT NA 250+ Winstreak | p100 SPIRIT 👻 p100 HUNTRESS 🪓 | !socials !youtube</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>1958505856</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>chillin and grillin (these survivors) 250+ Spirit Winstreak | p100 SPIRIT 👻 p100 HUNTRESS 🪓 | !socials !youtube</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>1955891035</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>Twitch drops enabled! gamer girl gamin | p100 SPIRIT 👻 p100 HUNTRESS 🪓 | !socials !youtube</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>1954277928</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>Twitch drops enabled! DBD HALLOWEEN EVENT LIVE | p100 SPIRIT 👻 p100 HUNTRESS 🪓 | !socials !youtube</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>1952683391</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>Twitch drops enabled! HIGHEST Spirit winstreak 245+ | p100 SPIRIT 👻 p100 HUNTRESS 🪓 | !socials !youtube</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>1950105095</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>Twitch drops enabled! HIGHEST Spirit winstreak 240+ | p100 SPIRIT 👻 p100 HUNTRESS 🪓 | !socials !youtube</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>1949296059</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>HIGHEST Spirit winstreak 240+ | p100 SPIRIT 👻 p100 HUNTRESS 🪓 | !socials !youtube</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>1947641620</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>Playing with the new changes and updates | p100 SPIRIT 👻 p100 HUNTRESS 🪓 | !socials !youtube</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>1946838238</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>gamer girl gamin | P100 SPIRIT 👻 | P100 HUNTRESS 🪓 | !socials !youtube</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>1977459260</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>я хочу апнуть 20.000 | !tg !mycsgo !прием</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>1972950949</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>я хочу апнуть 20.000 | !tg !mycsgo !прием</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>1971253384</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>я хочу апнуть 20.000 | !tg !mycsgo !прием</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>1969299822</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>Едем на турнир к шадоукеку 1х1 @nordvi</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>1968860079</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>я хочу апнуть 20.000 | !tg !mycsgo !прием</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>1968513682</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>С @NORDVI пришли на танцы</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>1967723682</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>я хочу апнуть 20.000 | !th !mycsgo !прием</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>1966826924</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>я хочу апнуть 20.000 | !th !mycsgo !прием</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>1962657492</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>апаем 20.000 | !tg !mycsgo !прием</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>1961012808</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>фраги будут? | !tg !mycsgo !прием</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>1960208517</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>Треним АИМ в ирл</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>1959353874</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>фраги будут? | !tg !mycsgo !прием</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>1955923578</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>стараюсь не материться день 5 | !tg !mycsgo !прием</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>1953944207</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>стараюсь не материться день 4 | !tg !mycsgo !прием</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>1951232503</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>стараюсь не материться день 3 | !tg !mycsgo !прием</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>1949318941</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>стараюсь не материться день 2 | !tg !mycsgo !прием</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>1949280704</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>стараюсь не материться день 2 | !tg !mycsgo !прием</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>1947634290</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>стараюсь не материться день 1 | !tg !mycsgo !прием</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>1946828751</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>калибруюсь и поднимаем мотивацию | !tg !mycsgo !прием</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>1943929784</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>Едем на турнир fme</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>1974914699</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>SABADO PICANTE🦉 POLICIA ON TOP 🦉 🟥⬜🟦 CREATIVOSRP @youcesar_</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>1973964591</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>TAMO VIVO🦉 POLICIA ON TOP 🦉 🟥⬜🟦 CREATIVOSRP @youcesar_</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>1970518491</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>🟥⬜🟦 LUNES POSITIVO 🟥⬜🟦 POLICIA ON TOP 🟥⬜🟦 CREATIVOSRP @youcesar_</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>1966924647</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>JUIDERO FEO HOY MODO CABRA🐐 CREATIVOSRP 🟥⬜🟦 @youcesar_</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>1977596744</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>Dog Day! 40 Shinies Remain</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>1976755106</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>Pink Sloth Boys! 43 Remain</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>1974021567</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>Finishing Paldea Shinydex! 47 Remain</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>1973105576</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>Finishing Paldea Shinydex! 50 Remain</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>1972264612</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>Finishing Paldea Shinydex!</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>1971417045</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>Finishing Paldea Shinydex!</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>1970599786</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>First time Black 2 Playthrough!</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>1967945031</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>Welcome to Egg Prison</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>1967016287</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>7* Typhlosion Raids are here in an hour!</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>1966165803</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>Master Ball VGC with a Giraffe!</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>1965331601</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>Halloween Shiny Hunting!</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>1961980439</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>Shiny Landorus is just a myth</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>1961146746</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>Shiny Landorus is haunting my existence</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>1960333754</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>Shiny Landorus is haunting my soul</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>1959518151</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>Shiny Landorus is hurting my soul</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>1958710143</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>Shiny Landorus is hurting my soul</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>1956103082</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>Shiny Landorus TODAY for REAL [NOT clickbait]</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>1955245925</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>Shiny Landorus isn't possible :(</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>1954448611</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>Shiny Landorus is fake</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>1953650888</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>Shiny Lando is not real</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>1976487172</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>Dearest karth i hope u are well i would like u to ult my lane pretty plz ur bot laner - sweaty</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>1973714558</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>Dearest karth i hope u are well i would like u to ult my lane pretty plz ur bot laner - sweaty</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>1970331666</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>FRIENDSHIP ENDED WITH HEARTSTEEL NOW SUPER FAN KDA NEEKO IS MY BFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>1967624530</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>probs last omega strikers stream o7 but lets have fun!</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>1965852155</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>omg shes playing the funny seraphine build</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>1964190426</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>im farming for next game</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>1960841581</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>CRYING SPEEDRUN LEAGUE OF LEGENDS EDITION</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>1960025793</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>CRYING SPEEDRUN LEAGUE OF LEGENDS EDITION</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>1959209053</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>CRYING SPEEDRUN LEAGUE OF LEGENDS EDITION</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>1958404601</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>MMMM YUMMY BOY BAND</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>1953346705</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>WEEEEEEEEEE THE LP GOES DOWN THE DRAIN THATS RIGHT WEEEEEEEEEEEEEEEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>1950093382</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>EUW RANK TIME YAYYYYY TIME TO CRY</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>1949132689</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>EUW RANK TIME YAYYYYY TIME TO CRY</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>1948324789</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>COVEN GIRLS TODAY WE TESTING ALL THE GIRLIES (SORRY MORD ITS GIRL DINNER)</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>1947557534</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>How many games will it take for sweaty to play jhin again | @Miyuzik</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>1944104233</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>NO SWEATY U CANT JUST TAKE GATHERING STORM CUZ UR GAMES ARE TOO LONG</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>1943295019</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>THE WORLD CHOSE TO HATE ME SO ILL SCREAM AT IT</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>1942670227</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>OH GOD SHES ON EUW (GODS GODS GOOOOODS)</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>1938215978</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>LAST DAY OF SUBTEMBER (5 SUBS = SELECT MY CHAMP)</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>1937385082</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>UNBENCH THE KEEEEEEENCH LONG LIVE THE TOAD KING</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>1977346427</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>RF chieftain Bodyswap CwC Scorching Ray YEP !merch !youtube !buildsheet</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>1976368040</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>RF chieftain Bodyswap CwC Scorching Ray YEP !merch !youtube !buildsheet</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>1975466968</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>BLAST EVENT HYPE! RF chieftain Bodyswap CwC Scorching Ray YEP !merch !youtube !buildsheet</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>1974763784</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>BLAST EVENT HYPE! RF chieftain Bodyswap CwC Scorching Ray YEP !merch !youtube !buildsheet</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>1973926298</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>Blast event waiting room - RF chieftain Bodyswap CwC Scorching Ray YEP !merch !youtube !buildsheet</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>1973009414</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>New Nimis build and some event prep !merch !youtube !buildsheet</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>1971433306</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>krangling to maps and other PoE things !merch !youtube !buildsheet | !builds !maxroll [PoE]</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>1970380419</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>back from vacation,maybe trying krangled? !merch !youtube !buildsheet | !builds !maxroll [PoE]</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>1964236018</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>getting this chieftain into maps. prepping for Blast Event !merch !youtube !buildsheet | !builds !maxroll [PoE]</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>1963288389</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>rainy sunday vibes. event prep stuff !merch !youtube !buildsheet | !builds !maxroll [PoE]</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>1962588899</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>event prep stuff !merch !youtube !buildsheet | !builds !maxroll [PoE]</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>1960968768</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>Cooking Stream at 6PM ET! Until then, Storm Call? !merch !youtube !buildsheet | !builds !maxroll [PoE]</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>1960176582</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>Live with Restream</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>1959188312</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>league start testing SNIPE deadeye !merch !youtube !buildsheet | !builds !maxroll [PoE]</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>1958362649</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>Lightning Tendrils, killing ubers and doing challenges !merch !youtube !buildsheet | !builds !maxroll [PoE]</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>1955779149</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>Lightning Tendrils, killing ubers and doing challenges !merch !youtube !buildsheet | !builds !maxroll [PoE]</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>1955071584</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>maybe giga build time?  !merch !youtube !buildsheet | !builds !maxroll [PoE]</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>1955070118</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>maybe giga build time?  !merch !youtube !buildsheet | !builds !maxroll [PoE]</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>1955025595</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>maybe giga build time?  !merch !youtube !buildsheet | !builds !maxroll [PoE]</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>1954196293</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>New cam, who dis? 10 Divine Snipe Deadeye  !merch !youtube !buildsheet | !builds !maxroll [PoE]</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>1975859880</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>🎄🏆 #1 EGIRL PAINTING STREAM 🏆✔️🎄MERRY CHRISTMAS🎄✔️ HUGE CONTENT✔️ PEPE PAINTING✔️ PEPE ART✔️  PEEPO.COOL✔️  🔴 COOKING UP ACRYLIC🔴</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>1974919513</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>🎄🏆 #1 EGIRL PAINTING STREAM 🏆✔️🎄MERRY CHRISTMAS🎄✔️ HUGE CONTENT✔️ PEPE PAINTING✔️ PEPE ART✔️  PEEPO.COOL✔️  🔴 COOKING UP ACRYLIC🔴</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>1973935131</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>🎄🏆 #1 EGIRL PAINTING STREAM 🏆✔️ STROKED OUT Ep. #1 ft. @Plantboyz @Tikitacotony✔️HUGE CONTENT✔️ PEPE PAINTING✔️ PEPE ART✔️  PEEPO.COOL✔️</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>1973145302</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>🎄🏆 #1 EGIRL PAINTING STREAM 🏆✔️🎄MERRY CHRISTMAS🎄✔️ HUGE CONTENT✔️ PEPE PAINTING✔️ PEPE ART✔️  PEEPO.COOL✔️  🔴 RICHEST MAN IN ICELAND🔴</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>1973017966</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>🎄🏆 #1 PAINTING STREAM 🏆✔️ 🎄MERRY CHRISTMAS🎄✔️  HUGE CONTENT✔️ PEPE PAINTING✔️ PEPE ART✔️  PEEPO.COOL✔️  🔴 RICHEST MAN IN ICELAND🔴</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>1971294549</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>🎄🏆 #1 PAINTING STREAM 🏆✔️ 🎄MERRY CHRISTMAS🎄✔️  HUGE CONTENT✔️ PEPE PAINTING✔️ PEPE ART✔️  PEEPO.COOL✔️  🔴 RICHEST MAN IN ICELAND🔴</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>1970467301</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>🎄🏆 #1 PAINTING STREAM 🏆✔️ 🎄MERRY CHRISTMAS🎄✔️  HUGE CONTENT✔️ PEPE PAINTING✔️ PEPE ART✔️  PEEPO.COOL✔️  🔴 RICHEST MAN IN ICELAND🔴</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>1967781359</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>🎄🏆 #1 PAINTING STREAM 🏆✔️ 🎄MERRY CHRISTMAS🎄✔️  HUGE CONTENT✔️ PEPE PAINTING✔️ PEPE ART✔️  PEEPO.COOL✔️  🔴 RICHEST MAN IN ICELAND🔴</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>1966873476</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>🎄🏆 #1 PAINTING STREAM 🏆✔️ 🎄MERRY CHRISTMAS🎄✔️  HUGE CONTENT✔️ PEPE PAINTING✔️ PEPE ART✔️  PEEPO.COOL✔️  🔴 RICHEST MAN IN ICELAND🔴</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>1966394068</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>🎃TRICK-OR-TREATING🎃 Highlights 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>1966190974</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>🎃HALLOWEEN RECAP + PAINTING🎃✔️ FREE TTS✔️  HUGE CONTENT✔️ PEEPO.COOL✔️ HAPPY HALLOWEEN✔️ !DISCORD✔️ 🔴🏆RICHEST MAN IN ICELAND🏆🔴</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>1965260292</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>🎃TRICK-OR-TREATING🎃✔️ FREE TTS✔️  HUGE CONTENT✔️ PEEPO.COOL✔️ HAPPY HALLOWEEN✔️ !DISCORD✔️ 🔴🏆RICHEST MAN IN ICELAND🏆🔴</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>1964692365</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>CAMELUL TRAILER</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>1962940083</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>GARF PB interviews</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>1962894300</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>mangoflip</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>1962805105</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>scentless,wizard guy, erby, scary cheese lordTocs, mcl</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>1961822927</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>🏆 #1 PAINTING STREAM 🏆✔️ TWITCHCON 2023 RECAP🔴✔️  HUGE CONTENT✔️ VEGAS✔️ MOLE PEOPLE✔️ PEEPO.COOL✔️  🔴 IRL TRICK-OR-TREATING TUESDAY🔴</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>1961468714</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEPT 17TH 2023 - 🏆 SUBATHON DAY 2-3 PAINTING 🏆 </t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>1961468613</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SEPT 15TH 2023 - 🏆 SUBATHON DAY 1 PAINTING 🏆</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>1961468475</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>SEPT 14TH 2023 - 👻 PREPPING FOR SUBATHON✔️  🦫BEAVER LAKE 🦫 ✔️ NEXT MEMBER OF OTK✔️ FOLLOW = FREE TTS✔️ !MERCH✔️ !OTK✔️</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>1977336229</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>Дорога к Мастеру EUW - League of Legends</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>1976475609</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>Дорога к Мастеру EUW - League of Legends</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>1975639813</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>Дорога к Мастеру EUW - League of Legends</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>1974669628</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>Дорога к Мастеру EUW - League of Legends</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>1973761337</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>Дорога к Мастеру EUW - League of Legends</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>1972885413</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>Дорога к Мастеру EUW - League of Legends</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>1972789634</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>Разбор Игр с Тренером @lolseryy - League of Legends</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>1972033113</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>Дорога к Мастеру EUW - League of Legends</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>1971099014</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>Дорога к Мастеру EUW - League of Legends</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>1970338230</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>Дорога к Мастеру EUW - League of Legends</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>1969540421</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>Дорога к Мастеру EUW - League of Legends</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>1968603810</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>Дорога к Мастеру EUW - League of Legends</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>1967597677</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>Дорога к Мастеру EUW - League of Legends</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>1966739938</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>Дорога к Мастеру EUW - League of Legends</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>1965904360</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>Дорога к Мастеру EUW - League of Legends</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>1965211874</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>Дорога к Мастеру EUW - League of Legends</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>1965056084</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>Дорога к Мастеру EUW - League of Legends</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>1964243698</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>Дорога к Мастеру EUW - League of Legends</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>1955861896</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>Соло прохождение за Волшебника без Личинок на Тактике! - Baldur's Gate 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>1955007771</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>Истинно злое Прохождение за Темного Соблазна! - Baldur's Gate 3</t>
         </is>
       </c>
     </row>
